--- a/results/MVSE/dblp/MVSE_dblp<l05><WH>91.05.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l05><WH>91.05.xlsx
@@ -930,7 +930,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -978,27 +978,27 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="N8" t="n">
-        <v>89.3</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="O8" t="n">
         <v>0.05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-20_53_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_15_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>0.22</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_08_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-20_53_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
